--- a/Real-Time/Realtime Regressions/Test.xlsx
+++ b/Real-Time/Realtime Regressions/Test.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thoma\Documents\GitHub\Drought-Research\Real-Time\Realtime Regressions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F7BAFDB-6AD5-4448-811B-1CA2FFE7C6CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18573D61-AA68-4E90-9697-B4F16B220FF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
+    <sheet name="1M Test" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <pivotCaches>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -346,7 +346,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$F$1</c:f>
+              <c:f>'1M Test'!$F$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -430,7 +430,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$E$2:$E$26</c:f>
+              <c:f>'1M Test'!$E$2:$E$26</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="25"/>
@@ -514,7 +514,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$F$2:$F$26</c:f>
+              <c:f>'1M Test'!$F$2:$F$26</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="25"/>
@@ -783,6 +783,1466 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'1M Test'!$R$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>July</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="poly"/>
+            <c:order val="4"/>
+            <c:forward val="1"/>
+            <c:backward val="1"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.11399451966226791"/>
+                  <c:y val="-9.424169826611202E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'1M Test'!$Q$2:$Q$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>2.9</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.55</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.47</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.55</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.18</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.89</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.31</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.64</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.67</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.05</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.27</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.86</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>11.41</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2.99</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>5.13</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.21</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3.01</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>8.65</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>3.42</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>3.38</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>4.37</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'1M Test'!$R$2:$R$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>-0.12</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.55</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-1.01</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-1.08</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.21</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.49</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-0.75</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-0.46</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-0.94</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-0.24</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-0.04</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-0.49</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-0.67</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-1.72</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.19</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2.64</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-7.0000000000000007E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.87</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-1.32</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-0.06</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.96</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.15</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.13</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.56999999999999995</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-029B-4D41-9DCC-B2CD3148164C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="693474991"/>
+        <c:axId val="693472591"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="693474991"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="693472591"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="693472591"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="693474991"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'1M Test'!$R$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>July</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="log"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="5.4612678471342144E-2"/>
+                  <c:y val="-0.13908850038247064"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'1M Test'!$Q$2:$Q$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>2.9</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.55</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.47</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.55</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.18</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.89</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.31</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.64</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.67</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.05</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.27</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.86</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>11.41</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2.99</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>5.13</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.21</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3.01</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>8.65</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>3.42</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>3.38</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>4.37</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'1M Test'!$R$2:$R$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>-0.12</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.55</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-1.01</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-1.08</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.21</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.49</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-0.75</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-0.46</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-0.94</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-0.24</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-0.04</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-0.49</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-0.67</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-1.72</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.19</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2.64</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-7.0000000000000007E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.87</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-1.32</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-0.06</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.96</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.15</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.13</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.56999999999999995</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-029B-4D41-9DCC-B2CD3148164C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="693474991"/>
+        <c:axId val="693472591"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="693474991"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="693472591"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="693472591"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="693474991"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'1M Test'!$R$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>July</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="log"/>
+            <c:forward val="1"/>
+            <c:backward val="1"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.13724365938823804"/>
+                  <c:y val="-0.23750852317009477"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'1M Test'!$Q$2:$Q$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>2.9</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.55</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.47</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.55</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.18</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.89</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.31</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.64</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.67</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.05</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.27</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.86</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>11.41</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2.99</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>5.13</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.21</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3.01</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>8.65</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>3.42</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>3.38</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>4.37</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'1M Test'!$R$2:$R$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>-0.12</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.55</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-1.01</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-1.08</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.21</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.49</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-0.75</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-0.46</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-0.94</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-0.24</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-0.04</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-0.49</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-0.67</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-1.72</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.19</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2.64</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-7.0000000000000007E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.87</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-1.32</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-0.06</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.96</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.15</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.13</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.56999999999999995</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-029B-4D41-9DCC-B2CD3148164C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="693474991"/>
+        <c:axId val="693472591"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="693474991"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="693472591"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="693472591"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="693474991"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
@@ -838,7 +2298,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$F$1</c:f>
+              <c:f>'1M Test'!$F$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -921,7 +2381,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$E$2:$E$26</c:f>
+              <c:f>'1M Test'!$E$2:$E$26</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="25"/>
@@ -1005,7 +2465,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$F$2:$F$26</c:f>
+              <c:f>'1M Test'!$F$2:$F$26</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="25"/>
@@ -1329,7 +2789,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$F$1</c:f>
+              <c:f>'1M Test'!$F$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1413,7 +2873,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$E$2:$E$26</c:f>
+              <c:f>'1M Test'!$E$2:$E$26</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="25"/>
@@ -1497,7 +2957,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$F$2:$F$26</c:f>
+              <c:f>'1M Test'!$F$2:$F$26</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="25"/>
@@ -1821,7 +3281,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$F$1</c:f>
+              <c:f>'1M Test'!$F$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1907,7 +3367,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$E$2:$E$26</c:f>
+              <c:f>'1M Test'!$E$2:$E$26</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="25"/>
@@ -1991,7 +3451,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$F$2:$F$26</c:f>
+              <c:f>'1M Test'!$F$2:$F$26</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="25"/>
@@ -2315,7 +3775,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$F$1</c:f>
+              <c:f>'1M Test'!$F$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2401,7 +3861,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$E$2:$E$26</c:f>
+              <c:f>'1M Test'!$E$2:$E$26</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="25"/>
@@ -2485,7 +3945,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$F$2:$F$26</c:f>
+              <c:f>'1M Test'!$F$2:$F$26</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="25"/>
@@ -2809,7 +4269,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$F$1</c:f>
+              <c:f>'1M Test'!$F$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2894,7 +4354,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$E$2:$E$26</c:f>
+              <c:f>'1M Test'!$E$2:$E$26</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="25"/>
@@ -2978,7 +4438,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$F$2:$F$26</c:f>
+              <c:f>'1M Test'!$F$2:$F$26</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="25"/>
@@ -3247,7 +4707,1587 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'1M Test'!$R$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>July</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="poly"/>
+            <c:order val="3"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="7.6095565158450312E-2"/>
+                  <c:y val="-0.11305721539194927"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'1M Test'!$Q$2:$Q$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>2.9</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.55</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.47</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.55</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.18</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.89</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.31</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.64</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.67</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.05</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.27</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.86</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>11.41</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2.99</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>5.13</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.21</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3.01</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>8.65</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>3.42</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>3.38</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>4.37</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'1M Test'!$R$2:$R$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>-0.12</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.55</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-1.01</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-1.08</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.21</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.49</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-0.75</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-0.46</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-0.94</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-0.24</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-0.04</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-0.49</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-0.67</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-1.72</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.19</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2.64</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-7.0000000000000007E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.87</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-1.32</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-0.06</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.96</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.15</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.13</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.56999999999999995</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-029B-4D41-9DCC-B2CD3148164C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="693474991"/>
+        <c:axId val="693472591"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="693474991"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="693472591"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="693472591"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="693474991"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'1M Test'!$R$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>July</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="poly"/>
+            <c:order val="3"/>
+            <c:forward val="1"/>
+            <c:backward val="1"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.12126965851494784"/>
+                  <c:y val="-0.14551738505078443"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'1M Test'!$Q$2:$Q$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>2.9</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.55</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.47</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.55</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.18</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.89</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.31</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.64</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.67</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.05</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.27</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.86</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>11.41</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2.99</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>5.13</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.21</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3.01</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>8.65</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>3.42</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>3.38</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>4.37</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'1M Test'!$R$2:$R$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>-0.12</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.55</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-1.01</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-1.08</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.21</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.49</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-0.75</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-0.46</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-0.94</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-0.24</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-0.04</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-0.49</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-0.67</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-1.72</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.19</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2.64</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-7.0000000000000007E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.87</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-1.32</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-0.06</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.96</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.15</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.13</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.56999999999999995</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-029B-4D41-9DCC-B2CD3148164C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="693474991"/>
+        <c:axId val="693472591"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="693474991"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="693472591"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="693472591"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="693474991"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'1M Test'!$R$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>July</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="poly"/>
+            <c:order val="4"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.1021018154574357"/>
+                  <c:y val="-8.9591624816617338E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'1M Test'!$Q$2:$Q$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>2.9</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.55</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.47</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.55</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.18</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.89</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.31</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.64</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.67</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.05</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.27</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.86</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>11.41</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2.99</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>5.13</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.21</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3.01</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>8.65</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>3.42</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>3.38</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>4.37</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'1M Test'!$R$2:$R$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>-0.12</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.55</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-1.01</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-1.08</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.21</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.49</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-0.75</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-0.46</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-0.94</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-0.24</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-0.04</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-0.49</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-0.67</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-1.72</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.19</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2.64</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-7.0000000000000007E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.87</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-1.32</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-0.06</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.96</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.15</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.13</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.56999999999999995</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-029B-4D41-9DCC-B2CD3148164C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="693474991"/>
+        <c:axId val="693472591"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="693474991"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="693472591"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="693472591"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="693474991"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors10.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors11.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors12.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -3487,6 +6527,126 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -4003,7 +7163,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style10.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -4519,7 +7679,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style11.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -5035,7 +8195,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style12.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -5551,7 +8711,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -6067,7 +9227,3103 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -6801,13 +13057,229 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>204637</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>158939</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>490388</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>180711</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="29" name="Chart 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2C5F33DF-8BC6-18B8-F37D-CA43F198E5E7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>204637</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>178378</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>490388</xdr:colOff>
+      <xdr:row>86</xdr:row>
+      <xdr:rowOff>9649</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="30" name="Chart 29">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A085755D-DD1C-2F2D-993A-87372C869EB2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId8"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>533683</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>158939</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>213297</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>180711</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="33" name="Chart 32">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BAB8FC14-8713-1717-D61B-1F98D6BF1503}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId9"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>533683</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>178378</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>213297</xdr:colOff>
+      <xdr:row>86</xdr:row>
+      <xdr:rowOff>9649</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="34" name="Chart 33">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3EC309C5-2CDD-7B77-7129-66B122C4DD3F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId10"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>325865</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>158939</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>5479</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>180711</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="35" name="Chart 34">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F7D8EBA9-B42B-1398-5593-976BEBEE45C4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId11"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>325865</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>178378</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>5479</xdr:colOff>
+      <xdr:row>86</xdr:row>
+      <xdr:rowOff>9649</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="36" name="Chart 35">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7389C26B-8F13-4BEA-454F-4F29ABCE00CD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId12"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Thomas Schwent" refreshedDate="45686.904651736113" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="293" xr:uid="{21AE4C56-C6DF-433F-BB4D-5EF2FE071356}">
   <cacheSource type="worksheet">
-    <worksheetSource ref="A1:D294" sheet="Sheet1"/>
+    <worksheetSource ref="A1:D294" sheet="1M Test"/>
   </cacheSource>
   <cacheFields count="7">
     <cacheField name="Date" numFmtId="14">
@@ -9710,8 +16182,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AB294"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C26" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="T26" sqref="T26"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15985,6 +22457,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>